--- a/2024.xlsx
+++ b/2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\NICHOS WEB\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7299B06E-0856-493B-A4C3-DCD8CF2DA113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F4904D-987F-4E6E-B2B1-BC569D993FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,8 +375,8 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -389,6 +389,9 @@
       <c r="A1" s="5">
         <v>2.4745499999999998</v>
       </c>
+      <c r="B1" s="5">
+        <v>2.4786299999999999</v>
+      </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -404,6 +407,9 @@
       <c r="A2" s="5">
         <v>2.4746600000000001</v>
       </c>
+      <c r="B2" s="5">
+        <v>2.47878</v>
+      </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -419,6 +425,9 @@
       <c r="A3" s="5">
         <v>2.4747699999999999</v>
       </c>
+      <c r="B3" s="5">
+        <v>2.4789300000000001</v>
+      </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -434,6 +443,9 @@
       <c r="A4" s="5">
         <v>2.4748800000000002</v>
       </c>
+      <c r="B4" s="5">
+        <v>2.4790800000000002</v>
+      </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -449,6 +461,9 @@
       <c r="A5" s="5">
         <v>2.47499</v>
       </c>
+      <c r="B5" s="5">
+        <v>2.4792299999999998</v>
+      </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -464,6 +479,9 @@
       <c r="A6" s="5">
         <v>2.4750999999999999</v>
       </c>
+      <c r="B6" s="5">
+        <v>2.4793799999999999</v>
+      </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -479,6 +497,9 @@
       <c r="A7" s="5">
         <v>2.4752100000000001</v>
       </c>
+      <c r="B7" s="5">
+        <v>2.47953</v>
+      </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -494,6 +515,9 @@
       <c r="A8" s="5">
         <v>2.47532</v>
       </c>
+      <c r="B8" s="5">
+        <v>2.4796800000000001</v>
+      </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -509,6 +533,9 @@
       <c r="A9" s="5">
         <v>2.4754299999999998</v>
       </c>
+      <c r="B9" s="5">
+        <v>2.4798300000000002</v>
+      </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -524,6 +551,9 @@
       <c r="A10" s="5">
         <v>2.4755400000000001</v>
       </c>
+      <c r="B10" s="5">
+        <v>2.4799799999999999</v>
+      </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -536,7 +566,9 @@
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5">
+        <v>2.4756800000000001</v>
+      </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -551,7 +583,9 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5">
+        <v>2.4758200000000001</v>
+      </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -565,7 +599,9 @@
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5">
+        <v>2.4759600000000002</v>
+      </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -579,7 +615,9 @@
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5">
+        <v>2.4761000000000002</v>
+      </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -593,7 +631,9 @@
       <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5">
+        <v>2.4762400000000002</v>
+      </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -607,7 +647,9 @@
       <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="5">
+        <v>2.4763799999999998</v>
+      </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -621,7 +663,9 @@
       <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5">
+        <v>2.4765199999999998</v>
+      </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -635,7 +679,9 @@
       <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5">
+        <v>2.4766599999999999</v>
+      </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -649,7 +695,9 @@
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="5">
+        <v>2.4767999999999999</v>
+      </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -663,7 +711,9 @@
       <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="5">
+        <v>2.4769399999999999</v>
+      </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -677,7 +727,9 @@
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5">
+        <v>2.4770799999999999</v>
+      </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -691,7 +743,9 @@
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5">
+        <v>2.47722</v>
+      </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -705,7 +759,9 @@
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="5">
+        <v>2.47736</v>
+      </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -719,7 +775,9 @@
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="5">
+        <v>2.4775</v>
+      </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -733,7 +791,9 @@
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+      <c r="A25" s="5">
+        <v>2.4776400000000001</v>
+      </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -747,7 +807,9 @@
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
+      <c r="A26" s="5">
+        <v>2.4777800000000001</v>
+      </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -761,7 +823,9 @@
       <c r="L26" s="10"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
+      <c r="A27" s="5">
+        <v>2.4779200000000001</v>
+      </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -775,7 +839,9 @@
       <c r="L27" s="10"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+      <c r="A28" s="5">
+        <v>2.4780600000000002</v>
+      </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -789,7 +855,9 @@
       <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5">
+        <v>2.4782000000000002</v>
+      </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -803,7 +871,9 @@
       <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
+      <c r="A30" s="5">
+        <v>2.4783400000000002</v>
+      </c>
       <c r="B30" s="8"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -817,7 +887,9 @@
       <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
+      <c r="A31" s="5">
+        <v>2.4784799999999998</v>
+      </c>
       <c r="B31" s="8"/>
       <c r="C31" s="10"/>
       <c r="D31" s="1"/>

--- a/2024.xlsx
+++ b/2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\NICHOS WEB\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F4904D-987F-4E6E-B2B1-BC569D993FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DB63FC-D90C-4961-B619-164D47277B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,8 +375,8 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -392,7 +392,9 @@
       <c r="B1" s="5">
         <v>2.4786299999999999</v>
       </c>
-      <c r="C1" s="10"/>
+      <c r="C1" s="5">
+        <v>2.4825699999999999</v>
+      </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -410,7 +412,9 @@
       <c r="B2" s="5">
         <v>2.47878</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="5">
+        <v>2.4826899999999998</v>
+      </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -428,7 +432,9 @@
       <c r="B3" s="5">
         <v>2.4789300000000001</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="5">
+        <v>2.4828100000000002</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -446,7 +452,9 @@
       <c r="B4" s="5">
         <v>2.4790800000000002</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="5">
+        <v>2.4829300000000001</v>
+      </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -464,7 +472,9 @@
       <c r="B5" s="5">
         <v>2.4792299999999998</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="5">
+        <v>2.48305</v>
+      </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -482,7 +492,9 @@
       <c r="B6" s="5">
         <v>2.4793799999999999</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="5">
+        <v>2.4831699999999999</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -500,7 +512,9 @@
       <c r="B7" s="5">
         <v>2.47953</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="5">
+        <v>2.4832900000000002</v>
+      </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -518,7 +532,9 @@
       <c r="B8" s="5">
         <v>2.4796800000000001</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="5">
+        <v>2.4834100000000001</v>
+      </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -536,7 +552,9 @@
       <c r="B9" s="5">
         <v>2.4798300000000002</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="5">
+        <v>2.48353</v>
+      </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -554,7 +572,9 @@
       <c r="B10" s="5">
         <v>2.4799799999999999</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="5">
+        <v>2.4836499999999999</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -569,7 +589,9 @@
       <c r="A11" s="5">
         <v>2.4756800000000001</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="5">
+        <v>2.4801099999999998</v>
+      </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -586,7 +608,9 @@
       <c r="A12" s="5">
         <v>2.4758200000000001</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="5">
+        <v>2.4802399999999998</v>
+      </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -602,7 +626,9 @@
       <c r="A13" s="5">
         <v>2.4759600000000002</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="5">
+        <v>2.4803700000000002</v>
+      </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -618,7 +644,9 @@
       <c r="A14" s="5">
         <v>2.4761000000000002</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="5">
+        <v>2.4805000000000001</v>
+      </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -634,7 +662,9 @@
       <c r="A15" s="5">
         <v>2.4762400000000002</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="5">
+        <v>2.4806300000000001</v>
+      </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -650,7 +680,9 @@
       <c r="A16" s="5">
         <v>2.4763799999999998</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="5">
+        <v>2.4807600000000001</v>
+      </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -666,7 +698,9 @@
       <c r="A17" s="5">
         <v>2.4765199999999998</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="5">
+        <v>2.48089</v>
+      </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -682,7 +716,9 @@
       <c r="A18" s="5">
         <v>2.4766599999999999</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="5">
+        <v>2.48102</v>
+      </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -698,7 +734,9 @@
       <c r="A19" s="5">
         <v>2.4767999999999999</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="5">
+        <v>2.48115</v>
+      </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -714,7 +752,9 @@
       <c r="A20" s="5">
         <v>2.4769399999999999</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="5">
+        <v>2.4812799999999999</v>
+      </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -730,7 +770,9 @@
       <c r="A21" s="5">
         <v>2.4770799999999999</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="5">
+        <v>2.4814099999999999</v>
+      </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -746,7 +788,9 @@
       <c r="A22" s="5">
         <v>2.47722</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="5">
+        <v>2.4815399999999999</v>
+      </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -762,7 +806,9 @@
       <c r="A23" s="5">
         <v>2.47736</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="5">
+        <v>2.4816699999999998</v>
+      </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -778,7 +824,9 @@
       <c r="A24" s="5">
         <v>2.4775</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="5">
+        <v>2.4817999999999998</v>
+      </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -794,7 +842,9 @@
       <c r="A25" s="5">
         <v>2.4776400000000001</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="5">
+        <v>2.4819300000000002</v>
+      </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -810,7 +860,9 @@
       <c r="A26" s="5">
         <v>2.4777800000000001</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="5">
+        <v>2.4820600000000002</v>
+      </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -826,7 +878,9 @@
       <c r="A27" s="5">
         <v>2.4779200000000001</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="5">
+        <v>2.4821900000000001</v>
+      </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -842,7 +896,9 @@
       <c r="A28" s="5">
         <v>2.4780600000000002</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="5">
+        <v>2.4823200000000001</v>
+      </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -858,7 +914,9 @@
       <c r="A29" s="5">
         <v>2.4782000000000002</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="5">
+        <v>2.48245</v>
+      </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>

--- a/2024.xlsx
+++ b/2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\NICHOS WEB\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DB63FC-D90C-4961-B619-164D47277B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F644223-C839-4B8A-A2CA-ABE066DEA55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,7 +376,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -395,7 +395,9 @@
       <c r="C1" s="5">
         <v>2.4825699999999999</v>
       </c>
-      <c r="D1" s="10"/>
+      <c r="D1" s="5">
+        <v>2.48739</v>
+      </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -415,7 +417,9 @@
       <c r="C2" s="5">
         <v>2.4826899999999998</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="5">
+        <v>2.4875600000000002</v>
+      </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -435,7 +439,9 @@
       <c r="C3" s="5">
         <v>2.4828100000000002</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="5">
+        <v>2.48773</v>
+      </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -455,7 +461,9 @@
       <c r="C4" s="5">
         <v>2.4829300000000001</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="5">
+        <v>2.4878999999999998</v>
+      </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -475,7 +483,9 @@
       <c r="C5" s="5">
         <v>2.48305</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="5">
+        <v>2.48807</v>
+      </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -495,7 +505,9 @@
       <c r="C6" s="5">
         <v>2.4831699999999999</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="5">
+        <v>2.4882399999999998</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -515,7 +527,9 @@
       <c r="C7" s="5">
         <v>2.4832900000000002</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="5">
+        <v>2.48841</v>
+      </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -535,7 +549,9 @@
       <c r="C8" s="5">
         <v>2.4834100000000001</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="5">
+        <v>2.4885799999999998</v>
+      </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -555,7 +571,9 @@
       <c r="C9" s="5">
         <v>2.48353</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="5">
+        <v>2.48875</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -575,7 +593,9 @@
       <c r="C10" s="5">
         <v>2.4836499999999999</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="5">
+        <v>2.4889199999999998</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -592,7 +612,9 @@
       <c r="B11" s="5">
         <v>2.4801099999999998</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="5">
+        <v>2.4838200000000001</v>
+      </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -611,7 +633,9 @@
       <c r="B12" s="5">
         <v>2.4802399999999998</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="5">
+        <v>2.4839899999999999</v>
+      </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -629,7 +653,9 @@
       <c r="B13" s="5">
         <v>2.4803700000000002</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="5">
+        <v>2.4841600000000001</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -647,7 +673,9 @@
       <c r="B14" s="5">
         <v>2.4805000000000001</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="5">
+        <v>2.4843299999999999</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -665,7 +693,9 @@
       <c r="B15" s="5">
         <v>2.4806300000000001</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="5">
+        <v>2.4845000000000002</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -683,7 +713,9 @@
       <c r="B16" s="5">
         <v>2.4807600000000001</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="5">
+        <v>2.4846699999999999</v>
+      </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -701,7 +733,9 @@
       <c r="B17" s="5">
         <v>2.48089</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="5">
+        <v>2.4848400000000002</v>
+      </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -719,7 +753,9 @@
       <c r="B18" s="5">
         <v>2.48102</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="5">
+        <v>2.4850099999999999</v>
+      </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -737,7 +773,9 @@
       <c r="B19" s="5">
         <v>2.48115</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="5">
+        <v>2.4851800000000002</v>
+      </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -755,7 +793,9 @@
       <c r="B20" s="5">
         <v>2.4812799999999999</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="5">
+        <v>2.4853499999999999</v>
+      </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -773,7 +813,9 @@
       <c r="B21" s="5">
         <v>2.4814099999999999</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="5">
+        <v>2.4855200000000002</v>
+      </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -791,7 +833,9 @@
       <c r="B22" s="5">
         <v>2.4815399999999999</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="5">
+        <v>2.48569</v>
+      </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -809,7 +853,9 @@
       <c r="B23" s="5">
         <v>2.4816699999999998</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="5">
+        <v>2.4858600000000002</v>
+      </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -827,7 +873,9 @@
       <c r="B24" s="5">
         <v>2.4817999999999998</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="5">
+        <v>2.48603</v>
+      </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -845,7 +893,9 @@
       <c r="B25" s="5">
         <v>2.4819300000000002</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="5">
+        <v>2.4862000000000002</v>
+      </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -863,7 +913,9 @@
       <c r="B26" s="5">
         <v>2.4820600000000002</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="5">
+        <v>2.48637</v>
+      </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -881,7 +933,9 @@
       <c r="B27" s="5">
         <v>2.4821900000000001</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="5">
+        <v>2.4865400000000002</v>
+      </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -899,7 +953,9 @@
       <c r="B28" s="5">
         <v>2.4823200000000001</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="5">
+        <v>2.48671</v>
+      </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -917,7 +973,9 @@
       <c r="B29" s="5">
         <v>2.48245</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="5">
+        <v>2.4868800000000002</v>
+      </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -933,7 +991,9 @@
         <v>2.4783400000000002</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="10"/>
+      <c r="C30" s="5">
+        <v>2.48705</v>
+      </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -949,7 +1009,9 @@
         <v>2.4784799999999998</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="10"/>
+      <c r="C31" s="5">
+        <v>2.4872200000000002</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="10"/>
       <c r="F31" s="3"/>

--- a/2024.xlsx
+++ b/2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\NICHOS WEB\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F644223-C839-4B8A-A2CA-ABE066DEA55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32279B7-01F8-4160-9078-F2A990462354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,8 +375,8 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -398,7 +398,9 @@
       <c r="D1" s="5">
         <v>2.48739</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="5">
+        <v>2.4933200000000002</v>
+      </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -420,7 +422,9 @@
       <c r="D2" s="5">
         <v>2.4875600000000002</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="5">
+        <v>2.4935200000000002</v>
+      </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -442,7 +446,9 @@
       <c r="D3" s="5">
         <v>2.48773</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="5">
+        <v>2.4937200000000002</v>
+      </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -464,7 +470,9 @@
       <c r="D4" s="5">
         <v>2.4878999999999998</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="5">
+        <v>2.4939200000000001</v>
+      </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -486,7 +494,9 @@
       <c r="D5" s="5">
         <v>2.48807</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="5">
+        <v>2.4941200000000001</v>
+      </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -508,7 +518,9 @@
       <c r="D6" s="5">
         <v>2.4882399999999998</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="5">
+        <v>2.4943200000000001</v>
+      </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -530,7 +542,9 @@
       <c r="D7" s="5">
         <v>2.48841</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="5">
+        <v>2.4945200000000001</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -552,7 +566,9 @@
       <c r="D8" s="5">
         <v>2.4885799999999998</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="5">
+        <v>2.49472</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -574,7 +590,9 @@
       <c r="D9" s="5">
         <v>2.48875</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="5">
+        <v>2.49492</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -596,7 +614,9 @@
       <c r="D10" s="5">
         <v>2.4889199999999998</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="5">
+        <v>2.49512</v>
+      </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -615,7 +635,9 @@
       <c r="C11" s="5">
         <v>2.4838200000000001</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="5">
+        <v>2.4891299999999998</v>
+      </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -636,7 +658,9 @@
       <c r="C12" s="5">
         <v>2.4839899999999999</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="5">
+        <v>2.4893399999999999</v>
+      </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -656,7 +680,9 @@
       <c r="C13" s="5">
         <v>2.4841600000000001</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="5">
+        <v>2.4895499999999999</v>
+      </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -676,7 +702,9 @@
       <c r="C14" s="5">
         <v>2.4843299999999999</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="5">
+        <v>2.48976</v>
+      </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -696,7 +724,9 @@
       <c r="C15" s="5">
         <v>2.4845000000000002</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="5">
+        <v>2.48997</v>
+      </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -716,7 +746,9 @@
       <c r="C16" s="5">
         <v>2.4846699999999999</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="5">
+        <v>2.4901800000000001</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -736,7 +768,9 @@
       <c r="C17" s="5">
         <v>2.4848400000000002</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="5">
+        <v>2.4903900000000001</v>
+      </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -756,7 +790,9 @@
       <c r="C18" s="5">
         <v>2.4850099999999999</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="5">
+        <v>2.4906000000000001</v>
+      </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -776,7 +812,9 @@
       <c r="C19" s="5">
         <v>2.4851800000000002</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="5">
+        <v>2.4908100000000002</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -796,7 +834,9 @@
       <c r="C20" s="5">
         <v>2.4853499999999999</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="5">
+        <v>2.4910199999999998</v>
+      </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -816,7 +856,9 @@
       <c r="C21" s="5">
         <v>2.4855200000000002</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="5">
+        <v>2.4912299999999998</v>
+      </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -836,7 +878,9 @@
       <c r="C22" s="5">
         <v>2.48569</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="5">
+        <v>2.4914399999999999</v>
+      </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -856,7 +900,9 @@
       <c r="C23" s="5">
         <v>2.4858600000000002</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="5">
+        <v>2.4916499999999999</v>
+      </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -876,7 +922,9 @@
       <c r="C24" s="5">
         <v>2.48603</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="5">
+        <v>2.49186</v>
+      </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -896,7 +944,9 @@
       <c r="C25" s="5">
         <v>2.4862000000000002</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="5">
+        <v>2.49207</v>
+      </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -916,7 +966,9 @@
       <c r="C26" s="5">
         <v>2.48637</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="5">
+        <v>2.4922800000000001</v>
+      </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -936,7 +988,9 @@
       <c r="C27" s="5">
         <v>2.4865400000000002</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="5">
+        <v>2.4924900000000001</v>
+      </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -956,7 +1010,9 @@
       <c r="C28" s="5">
         <v>2.48671</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="5">
+        <v>2.4927000000000001</v>
+      </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -976,7 +1032,9 @@
       <c r="C29" s="5">
         <v>2.4868800000000002</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="5">
+        <v>2.4929100000000002</v>
+      </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -994,7 +1052,9 @@
       <c r="C30" s="5">
         <v>2.48705</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="5">
+        <v>2.4931199999999998</v>
+      </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>

--- a/2024.xlsx
+++ b/2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\NICHOS WEB\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32279B7-01F8-4160-9078-F2A990462354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95834C8-2AAB-459C-8E7F-BF0E96354106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,8 +375,8 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -401,7 +401,9 @@
       <c r="E1" s="5">
         <v>2.4933200000000002</v>
       </c>
-      <c r="F1" s="10"/>
+      <c r="F1" s="5">
+        <v>2.5001899999999999</v>
+      </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -425,7 +427,9 @@
       <c r="E2" s="5">
         <v>2.4935200000000002</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="5">
+        <v>2.5004300000000002</v>
+      </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -449,7 +453,9 @@
       <c r="E3" s="5">
         <v>2.4937200000000002</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="5">
+        <v>2.5006699999999999</v>
+      </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -473,7 +479,9 @@
       <c r="E4" s="5">
         <v>2.4939200000000001</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="5">
+        <v>2.5009100000000002</v>
+      </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -497,7 +505,9 @@
       <c r="E5" s="5">
         <v>2.4941200000000001</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="5">
+        <v>2.50115</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -521,7 +531,9 @@
       <c r="E6" s="5">
         <v>2.4943200000000001</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="5">
+        <v>2.5013899999999998</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -545,7 +557,9 @@
       <c r="E7" s="5">
         <v>2.4945200000000001</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="5">
+        <v>2.50163</v>
+      </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -569,7 +583,9 @@
       <c r="E8" s="5">
         <v>2.49472</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="5">
+        <v>2.5018699999999998</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -593,7 +609,9 @@
       <c r="E9" s="5">
         <v>2.49492</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="5">
+        <v>2.5021100000000001</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -617,7 +635,9 @@
       <c r="E10" s="5">
         <v>2.49512</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="5">
+        <v>2.5023499999999999</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -638,7 +658,9 @@
       <c r="D11" s="5">
         <v>2.4891299999999998</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="5">
+        <v>2.4953500000000002</v>
+      </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -661,7 +683,9 @@
       <c r="D12" s="5">
         <v>2.4893399999999999</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="5">
+        <v>2.4955799999999999</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -683,7 +707,9 @@
       <c r="D13" s="5">
         <v>2.4895499999999999</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="5">
+        <v>2.4958100000000001</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -705,7 +731,9 @@
       <c r="D14" s="5">
         <v>2.48976</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="5">
+        <v>2.4960399999999998</v>
+      </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -727,7 +755,9 @@
       <c r="D15" s="5">
         <v>2.48997</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="5">
+        <v>2.49627</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -749,7 +779,9 @@
       <c r="D16" s="5">
         <v>2.4901800000000001</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="5">
+        <v>2.4965000000000002</v>
+      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -771,7 +803,9 @@
       <c r="D17" s="5">
         <v>2.4903900000000001</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="5">
+        <v>2.4967299999999999</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -793,7 +827,9 @@
       <c r="D18" s="5">
         <v>2.4906000000000001</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="5">
+        <v>2.4969600000000001</v>
+      </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -815,7 +851,9 @@
       <c r="D19" s="5">
         <v>2.4908100000000002</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="5">
+        <v>2.4971899999999998</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -837,7 +875,9 @@
       <c r="D20" s="5">
         <v>2.4910199999999998</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="5">
+        <v>2.49742</v>
+      </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -859,7 +899,9 @@
       <c r="D21" s="5">
         <v>2.4912299999999998</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="5">
+        <v>2.4976500000000001</v>
+      </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -881,7 +923,9 @@
       <c r="D22" s="5">
         <v>2.4914399999999999</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="5">
+        <v>2.4978799999999999</v>
+      </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -903,7 +947,9 @@
       <c r="D23" s="5">
         <v>2.4916499999999999</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="5">
+        <v>2.4981100000000001</v>
+      </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -925,7 +971,9 @@
       <c r="D24" s="5">
         <v>2.49186</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="5">
+        <v>2.4983399999999998</v>
+      </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -947,7 +995,9 @@
       <c r="D25" s="5">
         <v>2.49207</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="5">
+        <v>2.49857</v>
+      </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -969,7 +1019,9 @@
       <c r="D26" s="5">
         <v>2.4922800000000001</v>
       </c>
-      <c r="E26" s="10"/>
+      <c r="E26" s="5">
+        <v>2.4988000000000001</v>
+      </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -991,7 +1043,9 @@
       <c r="D27" s="5">
         <v>2.4924900000000001</v>
       </c>
-      <c r="E27" s="10"/>
+      <c r="E27" s="5">
+        <v>2.4990299999999999</v>
+      </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -1013,7 +1067,9 @@
       <c r="D28" s="5">
         <v>2.4927000000000001</v>
       </c>
-      <c r="E28" s="10"/>
+      <c r="E28" s="5">
+        <v>2.49926</v>
+      </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -1035,7 +1091,9 @@
       <c r="D29" s="5">
         <v>2.4929100000000002</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="5">
+        <v>2.4994900000000002</v>
+      </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -1055,7 +1113,9 @@
       <c r="D30" s="5">
         <v>2.4931199999999998</v>
       </c>
-      <c r="E30" s="10"/>
+      <c r="E30" s="5">
+        <v>2.4997199999999999</v>
+      </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -1073,7 +1133,9 @@
         <v>2.4872200000000002</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="10"/>
+      <c r="E31" s="5">
+        <v>2.4999500000000001</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>

--- a/2024.xlsx
+++ b/2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\NICHOS WEB\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95834C8-2AAB-459C-8E7F-BF0E96354106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AB6A11-F378-4F75-BE12-921C707C4039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,7 +376,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -404,7 +404,9 @@
       <c r="F1" s="5">
         <v>2.5001899999999999</v>
       </c>
-      <c r="G1" s="10"/>
+      <c r="G1" s="5">
+        <v>2.5073799999999999</v>
+      </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -430,7 +432,9 @@
       <c r="F2" s="5">
         <v>2.5004300000000002</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="5">
+        <v>2.5076100000000001</v>
+      </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -456,7 +460,9 @@
       <c r="F3" s="5">
         <v>2.5006699999999999</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="5">
+        <v>2.5078399999999998</v>
+      </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -482,7 +488,9 @@
       <c r="F4" s="5">
         <v>2.5009100000000002</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="5">
+        <v>2.50807</v>
+      </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -508,7 +516,9 @@
       <c r="F5" s="5">
         <v>2.50115</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="5">
+        <v>2.5083000000000002</v>
+      </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -534,7 +544,9 @@
       <c r="F6" s="5">
         <v>2.5013899999999998</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="5">
+        <v>2.5085299999999999</v>
+      </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -560,7 +572,9 @@
       <c r="F7" s="5">
         <v>2.50163</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="5">
+        <v>2.5087600000000001</v>
+      </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -586,7 +600,9 @@
       <c r="F8" s="5">
         <v>2.5018699999999998</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="5">
+        <v>2.5089899999999998</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -612,7 +628,9 @@
       <c r="F9" s="5">
         <v>2.5021100000000001</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="5">
+        <v>2.50922</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -638,7 +656,9 @@
       <c r="F10" s="5">
         <v>2.5023499999999999</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="5">
+        <v>2.5094500000000002</v>
+      </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -661,7 +681,9 @@
       <c r="E11" s="5">
         <v>2.4953500000000002</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="5">
+        <v>2.5025900000000001</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -686,7 +708,9 @@
       <c r="E12" s="5">
         <v>2.4955799999999999</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="5">
+        <v>2.5028299999999999</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -710,7 +734,9 @@
       <c r="E13" s="5">
         <v>2.4958100000000001</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="5">
+        <v>2.5030700000000001</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -734,7 +760,9 @@
       <c r="E14" s="5">
         <v>2.4960399999999998</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="5">
+        <v>2.5033099999999999</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -758,7 +786,9 @@
       <c r="E15" s="5">
         <v>2.49627</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="5">
+        <v>2.5035500000000002</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -782,7 +812,9 @@
       <c r="E16" s="5">
         <v>2.4965000000000002</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="5">
+        <v>2.50379</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -806,7 +838,9 @@
       <c r="E17" s="5">
         <v>2.4967299999999999</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="5">
+        <v>2.5040300000000002</v>
+      </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -830,7 +864,9 @@
       <c r="E18" s="5">
         <v>2.4969600000000001</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="5">
+        <v>2.50427</v>
+      </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -854,7 +890,9 @@
       <c r="E19" s="5">
         <v>2.4971899999999998</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="5">
+        <v>2.5045099999999998</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -878,7 +916,9 @@
       <c r="E20" s="5">
         <v>2.49742</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="5">
+        <v>2.50475</v>
+      </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -902,7 +942,9 @@
       <c r="E21" s="5">
         <v>2.4976500000000001</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="5">
+        <v>2.5049899999999998</v>
+      </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -926,7 +968,9 @@
       <c r="E22" s="5">
         <v>2.4978799999999999</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="5">
+        <v>2.5052300000000001</v>
+      </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -950,7 +994,9 @@
       <c r="E23" s="5">
         <v>2.4981100000000001</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="5">
+        <v>2.5054699999999999</v>
+      </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -974,7 +1020,9 @@
       <c r="E24" s="5">
         <v>2.4983399999999998</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="5">
+        <v>2.5057100000000001</v>
+      </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -998,7 +1046,9 @@
       <c r="E25" s="5">
         <v>2.49857</v>
       </c>
-      <c r="F25" s="10"/>
+      <c r="F25" s="5">
+        <v>2.5059499999999999</v>
+      </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -1022,7 +1072,9 @@
       <c r="E26" s="5">
         <v>2.4988000000000001</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="5">
+        <v>2.5061900000000001</v>
+      </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -1046,7 +1098,9 @@
       <c r="E27" s="5">
         <v>2.4990299999999999</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="5">
+        <v>2.5064299999999999</v>
+      </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -1070,7 +1124,9 @@
       <c r="E28" s="5">
         <v>2.49926</v>
       </c>
-      <c r="F28" s="10"/>
+      <c r="F28" s="5">
+        <v>2.5066700000000002</v>
+      </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -1094,7 +1150,9 @@
       <c r="E29" s="5">
         <v>2.4994900000000002</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="5">
+        <v>2.50691</v>
+      </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -1116,7 +1174,9 @@
       <c r="E30" s="5">
         <v>2.4997199999999999</v>
       </c>
-      <c r="F30" s="10"/>
+      <c r="F30" s="5">
+        <v>2.5071500000000002</v>
+      </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>

--- a/2024.xlsx
+++ b/2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\NICHOS WEB\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AB6A11-F378-4F75-BE12-921C707C4039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EC9BEA-736B-4A83-8017-733D547B790E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,7 +376,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -407,7 +407,9 @@
       <c r="G1" s="5">
         <v>2.5073799999999999</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="5">
+        <v>2.5150399999999999</v>
+      </c>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -435,7 +437,9 @@
       <c r="G2" s="5">
         <v>2.5076100000000001</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="5">
+        <v>2.5152999999999999</v>
+      </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -463,7 +467,9 @@
       <c r="G3" s="5">
         <v>2.5078399999999998</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="5">
+        <v>2.5155599999999998</v>
+      </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -491,7 +497,9 @@
       <c r="G4" s="5">
         <v>2.50807</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="5">
+        <v>2.5158200000000002</v>
+      </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -519,7 +527,9 @@
       <c r="G5" s="5">
         <v>2.5083000000000002</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="5">
+        <v>2.5160800000000001</v>
+      </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
@@ -547,7 +557,9 @@
       <c r="G6" s="5">
         <v>2.5085299999999999</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="5">
+        <v>2.51634</v>
+      </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -575,7 +587,9 @@
       <c r="G7" s="5">
         <v>2.5087600000000001</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="5">
+        <v>2.5165999999999999</v>
+      </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -603,7 +617,9 @@
       <c r="G8" s="5">
         <v>2.5089899999999998</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="5">
+        <v>2.5168599999999999</v>
+      </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -631,7 +647,9 @@
       <c r="G9" s="5">
         <v>2.50922</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="5">
+        <v>2.5171199999999998</v>
+      </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -659,7 +677,9 @@
       <c r="G10" s="5">
         <v>2.5094500000000002</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="5">
+        <v>2.5173800000000002</v>
+      </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -684,7 +704,9 @@
       <c r="F11" s="5">
         <v>2.5025900000000001</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="5">
+        <v>2.5097</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -711,7 +733,9 @@
       <c r="F12" s="5">
         <v>2.5028299999999999</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="5">
+        <v>2.5099499999999999</v>
+      </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -737,7 +761,9 @@
       <c r="F13" s="5">
         <v>2.5030700000000001</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="5">
+        <v>2.5102000000000002</v>
+      </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -763,7 +789,9 @@
       <c r="F14" s="5">
         <v>2.5033099999999999</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="5">
+        <v>2.5104500000000001</v>
+      </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -789,7 +817,9 @@
       <c r="F15" s="5">
         <v>2.5035500000000002</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="5">
+        <v>2.5106999999999999</v>
+      </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -815,7 +845,9 @@
       <c r="F16" s="5">
         <v>2.50379</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="5">
+        <v>2.5109499999999998</v>
+      </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -841,7 +873,9 @@
       <c r="F17" s="5">
         <v>2.5040300000000002</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="5">
+        <v>2.5112000000000001</v>
+      </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -867,7 +901,9 @@
       <c r="F18" s="5">
         <v>2.50427</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="5">
+        <v>2.51145</v>
+      </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -893,7 +929,9 @@
       <c r="F19" s="5">
         <v>2.5045099999999998</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="5">
+        <v>2.5116999999999998</v>
+      </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
@@ -919,7 +957,9 @@
       <c r="F20" s="5">
         <v>2.50475</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="5">
+        <v>2.5119500000000001</v>
+      </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
@@ -945,7 +985,9 @@
       <c r="F21" s="5">
         <v>2.5049899999999998</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="5">
+        <v>2.5122</v>
+      </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
@@ -971,7 +1013,9 @@
       <c r="F22" s="5">
         <v>2.5052300000000001</v>
       </c>
-      <c r="G22" s="10"/>
+      <c r="G22" s="5">
+        <v>2.5124499999999999</v>
+      </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
@@ -997,7 +1041,9 @@
       <c r="F23" s="5">
         <v>2.5054699999999999</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="5">
+        <v>2.5127000000000002</v>
+      </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
@@ -1023,7 +1069,9 @@
       <c r="F24" s="5">
         <v>2.5057100000000001</v>
       </c>
-      <c r="G24" s="10"/>
+      <c r="G24" s="5">
+        <v>2.5129600000000001</v>
+      </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
@@ -1049,7 +1097,9 @@
       <c r="F25" s="5">
         <v>2.5059499999999999</v>
       </c>
-      <c r="G25" s="10"/>
+      <c r="G25" s="5">
+        <v>2.51322</v>
+      </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
@@ -1075,7 +1125,9 @@
       <c r="F26" s="5">
         <v>2.5061900000000001</v>
       </c>
-      <c r="G26" s="10"/>
+      <c r="G26" s="5">
+        <v>2.5134799999999999</v>
+      </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -1101,7 +1153,9 @@
       <c r="F27" s="5">
         <v>2.5064299999999999</v>
       </c>
-      <c r="G27" s="10"/>
+      <c r="G27" s="5">
+        <v>2.5137399999999999</v>
+      </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
@@ -1127,7 +1181,9 @@
       <c r="F28" s="5">
         <v>2.5066700000000002</v>
       </c>
-      <c r="G28" s="10"/>
+      <c r="G28" s="5">
+        <v>2.5139999999999998</v>
+      </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -1153,7 +1209,9 @@
       <c r="F29" s="5">
         <v>2.50691</v>
       </c>
-      <c r="G29" s="10"/>
+      <c r="G29" s="5">
+        <v>2.5142600000000002</v>
+      </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -1177,7 +1235,9 @@
       <c r="F30" s="5">
         <v>2.5071500000000002</v>
       </c>
-      <c r="G30" s="10"/>
+      <c r="G30" s="5">
+        <v>2.5145200000000001</v>
+      </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -1197,7 +1257,9 @@
         <v>2.4999500000000001</v>
       </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="10"/>
+      <c r="G31" s="5">
+        <v>2.51478</v>
+      </c>
       <c r="H31" s="10"/>
       <c r="I31" s="4"/>
       <c r="J31" s="10"/>

--- a/2024.xlsx
+++ b/2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\NICHOS WEB\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\WEBS\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EC9BEA-736B-4A83-8017-733D547B790E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24190F19-3BBD-48E8-82EB-4627A359127E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,7 +376,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -410,7 +410,9 @@
       <c r="H1" s="5">
         <v>2.5150399999999999</v>
       </c>
-      <c r="I1" s="10"/>
+      <c r="I1" s="5">
+        <v>2.52311</v>
+      </c>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
@@ -440,7 +442,9 @@
       <c r="H2" s="5">
         <v>2.5152999999999999</v>
       </c>
-      <c r="I2" s="10"/>
+      <c r="I2" s="5">
+        <v>2.52338</v>
+      </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -470,7 +474,9 @@
       <c r="H3" s="5">
         <v>2.5155599999999998</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="5">
+        <v>2.5236499999999999</v>
+      </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
@@ -500,7 +506,9 @@
       <c r="H4" s="5">
         <v>2.5158200000000002</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="5">
+        <v>2.5239199999999999</v>
+      </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -530,7 +538,9 @@
       <c r="H5" s="5">
         <v>2.5160800000000001</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="5">
+        <v>2.5241899999999999</v>
+      </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -560,7 +570,9 @@
       <c r="H6" s="5">
         <v>2.51634</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="5">
+        <v>2.5244599999999999</v>
+      </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -590,7 +602,9 @@
       <c r="H7" s="5">
         <v>2.5165999999999999</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="5">
+        <v>2.5247299999999999</v>
+      </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -620,7 +634,9 @@
       <c r="H8" s="5">
         <v>2.5168599999999999</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="5">
+        <v>2.5249999999999999</v>
+      </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -650,7 +666,9 @@
       <c r="H9" s="5">
         <v>2.5171199999999998</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="5">
+        <v>2.5252699999999999</v>
+      </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -680,7 +698,9 @@
       <c r="H10" s="5">
         <v>2.5173800000000002</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="5">
+        <v>2.5255399999999999</v>
+      </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -707,7 +727,9 @@
       <c r="G11" s="5">
         <v>2.5097</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="5">
+        <v>2.5176400000000001</v>
+      </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -736,7 +758,9 @@
       <c r="G12" s="5">
         <v>2.5099499999999999</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="5">
+        <v>2.5179</v>
+      </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -764,7 +788,9 @@
       <c r="G13" s="5">
         <v>2.5102000000000002</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="5">
+        <v>2.51816</v>
+      </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -792,7 +818,9 @@
       <c r="G14" s="5">
         <v>2.5104500000000001</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="5">
+        <v>2.5184199999999999</v>
+      </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -820,7 +848,9 @@
       <c r="G15" s="5">
         <v>2.5106999999999999</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="5">
+        <v>2.5186799999999998</v>
+      </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -848,7 +878,9 @@
       <c r="G16" s="5">
         <v>2.5109499999999998</v>
       </c>
-      <c r="H16" s="10"/>
+      <c r="H16" s="5">
+        <v>2.5189400000000002</v>
+      </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -876,7 +908,9 @@
       <c r="G17" s="5">
         <v>2.5112000000000001</v>
       </c>
-      <c r="H17" s="10"/>
+      <c r="H17" s="5">
+        <v>2.5192000000000001</v>
+      </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -904,7 +938,9 @@
       <c r="G18" s="5">
         <v>2.51145</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="5">
+        <v>2.51946</v>
+      </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -932,7 +968,9 @@
       <c r="G19" s="5">
         <v>2.5116999999999998</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="5">
+        <v>2.51972</v>
+      </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -960,7 +998,9 @@
       <c r="G20" s="5">
         <v>2.5119500000000001</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="5">
+        <v>2.5199799999999999</v>
+      </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -988,7 +1028,9 @@
       <c r="G21" s="5">
         <v>2.5122</v>
       </c>
-      <c r="H21" s="10"/>
+      <c r="H21" s="5">
+        <v>2.5202399999999998</v>
+      </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -1016,7 +1058,9 @@
       <c r="G22" s="5">
         <v>2.5124499999999999</v>
       </c>
-      <c r="H22" s="10"/>
+      <c r="H22" s="5">
+        <v>2.5205000000000002</v>
+      </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -1044,7 +1088,9 @@
       <c r="G23" s="5">
         <v>2.5127000000000002</v>
       </c>
-      <c r="H23" s="10"/>
+      <c r="H23" s="5">
+        <v>2.5207600000000001</v>
+      </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -1072,7 +1118,9 @@
       <c r="G24" s="5">
         <v>2.5129600000000001</v>
       </c>
-      <c r="H24" s="10"/>
+      <c r="H24" s="5">
+        <v>2.52102</v>
+      </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -1100,7 +1148,9 @@
       <c r="G25" s="5">
         <v>2.51322</v>
       </c>
-      <c r="H25" s="10"/>
+      <c r="H25" s="5">
+        <v>2.52128</v>
+      </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -1128,7 +1178,9 @@
       <c r="G26" s="5">
         <v>2.5134799999999999</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="5">
+        <v>2.5215399999999999</v>
+      </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -1156,7 +1208,9 @@
       <c r="G27" s="5">
         <v>2.5137399999999999</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="5">
+        <v>2.5217999999999998</v>
+      </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -1184,7 +1238,9 @@
       <c r="G28" s="5">
         <v>2.5139999999999998</v>
       </c>
-      <c r="H28" s="10"/>
+      <c r="H28" s="5">
+        <v>2.5220600000000002</v>
+      </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -1212,7 +1268,9 @@
       <c r="G29" s="5">
         <v>2.5142600000000002</v>
       </c>
-      <c r="H29" s="10"/>
+      <c r="H29" s="5">
+        <v>2.5223200000000001</v>
+      </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -1238,7 +1296,9 @@
       <c r="G30" s="5">
         <v>2.5145200000000001</v>
       </c>
-      <c r="H30" s="10"/>
+      <c r="H30" s="5">
+        <v>2.52258</v>
+      </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
@@ -1260,7 +1320,9 @@
       <c r="G31" s="5">
         <v>2.51478</v>
       </c>
-      <c r="H31" s="10"/>
+      <c r="H31" s="5">
+        <v>2.52284</v>
+      </c>
       <c r="I31" s="4"/>
       <c r="J31" s="10"/>
       <c r="K31" s="7"/>

--- a/2024.xlsx
+++ b/2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\WEBS\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24190F19-3BBD-48E8-82EB-4627A359127E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AE72EE-ED11-41FE-A5FE-45FD85222CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,7 +376,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -413,7 +413,9 @@
       <c r="I1" s="5">
         <v>2.52311</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="5">
+        <v>2.53308</v>
+      </c>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
@@ -445,7 +447,9 @@
       <c r="I2" s="5">
         <v>2.52338</v>
       </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="5">
+        <v>2.53342</v>
+      </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
@@ -477,7 +481,9 @@
       <c r="I3" s="5">
         <v>2.5236499999999999</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="5">
+        <v>2.53376</v>
+      </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
@@ -509,7 +515,9 @@
       <c r="I4" s="5">
         <v>2.5239199999999999</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="5">
+        <v>2.5341</v>
+      </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
     </row>
@@ -541,7 +549,9 @@
       <c r="I5" s="5">
         <v>2.5241899999999999</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="5">
+        <v>2.53444</v>
+      </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
@@ -573,7 +583,9 @@
       <c r="I6" s="5">
         <v>2.5244599999999999</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="5">
+        <v>2.5347900000000001</v>
+      </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
@@ -605,7 +617,9 @@
       <c r="I7" s="5">
         <v>2.5247299999999999</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="5">
+        <v>2.5351400000000002</v>
+      </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
@@ -637,7 +651,9 @@
       <c r="I8" s="5">
         <v>2.5249999999999999</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="5">
+        <v>2.5354899999999998</v>
+      </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
@@ -669,7 +685,9 @@
       <c r="I9" s="5">
         <v>2.5252699999999999</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="5">
+        <v>2.5358399999999999</v>
+      </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
@@ -701,7 +719,9 @@
       <c r="I10" s="5">
         <v>2.5255399999999999</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="5">
+        <v>2.5361899999999999</v>
+      </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
@@ -730,7 +750,9 @@
       <c r="H11" s="5">
         <v>2.5176400000000001</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="5">
+        <v>2.5259</v>
+      </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -761,7 +783,9 @@
       <c r="H12" s="5">
         <v>2.5179</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="5">
+        <v>2.5262600000000002</v>
+      </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -791,7 +815,9 @@
       <c r="H13" s="5">
         <v>2.51816</v>
       </c>
-      <c r="I13" s="10"/>
+      <c r="I13" s="5">
+        <v>2.5266199999999999</v>
+      </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -821,7 +847,9 @@
       <c r="H14" s="5">
         <v>2.5184199999999999</v>
       </c>
-      <c r="I14" s="10"/>
+      <c r="I14" s="5">
+        <v>2.52698</v>
+      </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -851,7 +879,9 @@
       <c r="H15" s="5">
         <v>2.5186799999999998</v>
       </c>
-      <c r="I15" s="10"/>
+      <c r="I15" s="5">
+        <v>2.5273400000000001</v>
+      </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -881,7 +911,9 @@
       <c r="H16" s="5">
         <v>2.5189400000000002</v>
       </c>
-      <c r="I16" s="10"/>
+      <c r="I16" s="5">
+        <v>2.5276999999999998</v>
+      </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -911,7 +943,9 @@
       <c r="H17" s="5">
         <v>2.5192000000000001</v>
       </c>
-      <c r="I17" s="10"/>
+      <c r="I17" s="5">
+        <v>2.52806</v>
+      </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -941,7 +975,9 @@
       <c r="H18" s="5">
         <v>2.51946</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" s="5">
+        <v>2.5284200000000001</v>
+      </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -971,7 +1007,9 @@
       <c r="H19" s="5">
         <v>2.51972</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="I19" s="5">
+        <v>2.5287799999999998</v>
+      </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -1001,7 +1039,9 @@
       <c r="H20" s="5">
         <v>2.5199799999999999</v>
       </c>
-      <c r="I20" s="10"/>
+      <c r="I20" s="5">
+        <v>2.5291399999999999</v>
+      </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -1031,7 +1071,9 @@
       <c r="H21" s="5">
         <v>2.5202399999999998</v>
       </c>
-      <c r="I21" s="10"/>
+      <c r="I21" s="5">
+        <v>2.5295000000000001</v>
+      </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -1061,7 +1103,9 @@
       <c r="H22" s="5">
         <v>2.5205000000000002</v>
       </c>
-      <c r="I22" s="10"/>
+      <c r="I22" s="5">
+        <v>2.5298600000000002</v>
+      </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -1091,7 +1135,9 @@
       <c r="H23" s="5">
         <v>2.5207600000000001</v>
       </c>
-      <c r="I23" s="10"/>
+      <c r="I23" s="5">
+        <v>2.5302199999999999</v>
+      </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -1121,7 +1167,9 @@
       <c r="H24" s="5">
         <v>2.52102</v>
       </c>
-      <c r="I24" s="10"/>
+      <c r="I24" s="5">
+        <v>2.5305800000000001</v>
+      </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -1151,7 +1199,9 @@
       <c r="H25" s="5">
         <v>2.52128</v>
       </c>
-      <c r="I25" s="10"/>
+      <c r="I25" s="5">
+        <v>2.5309400000000002</v>
+      </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -1181,7 +1231,9 @@
       <c r="H26" s="5">
         <v>2.5215399999999999</v>
       </c>
-      <c r="I26" s="10"/>
+      <c r="I26" s="5">
+        <v>2.5312999999999999</v>
+      </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1211,7 +1263,9 @@
       <c r="H27" s="5">
         <v>2.5217999999999998</v>
       </c>
-      <c r="I27" s="10"/>
+      <c r="I27" s="5">
+        <v>2.53166</v>
+      </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -1241,7 +1295,9 @@
       <c r="H28" s="5">
         <v>2.5220600000000002</v>
       </c>
-      <c r="I28" s="10"/>
+      <c r="I28" s="5">
+        <v>2.5320200000000002</v>
+      </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
@@ -1271,7 +1327,9 @@
       <c r="H29" s="5">
         <v>2.5223200000000001</v>
       </c>
-      <c r="I29" s="10"/>
+      <c r="I29" s="5">
+        <v>2.5323799999999999</v>
+      </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
@@ -1299,7 +1357,9 @@
       <c r="H30" s="5">
         <v>2.52258</v>
       </c>
-      <c r="I30" s="10"/>
+      <c r="I30" s="5">
+        <v>2.53274</v>
+      </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>

--- a/2024.xlsx
+++ b/2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\WEBS\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AE72EE-ED11-41FE-A5FE-45FD85222CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52774261-9D57-4AE8-AB41-623F6BE0392D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,7 +376,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -416,7 +416,9 @@
       <c r="J1" s="5">
         <v>2.53308</v>
       </c>
-      <c r="K1" s="10"/>
+      <c r="K1" s="5">
+        <v>2.54522</v>
+      </c>
       <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -450,7 +452,9 @@
       <c r="J2" s="5">
         <v>2.53342</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="5">
+        <v>2.5456400000000001</v>
+      </c>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -484,7 +488,9 @@
       <c r="J3" s="5">
         <v>2.53376</v>
       </c>
-      <c r="K3" s="10"/>
+      <c r="K3" s="5">
+        <v>2.5460600000000002</v>
+      </c>
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -518,7 +524,9 @@
       <c r="J4" s="5">
         <v>2.5341</v>
       </c>
-      <c r="K4" s="10"/>
+      <c r="K4" s="5">
+        <v>2.5464799999999999</v>
+      </c>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -552,7 +560,9 @@
       <c r="J5" s="5">
         <v>2.53444</v>
       </c>
-      <c r="K5" s="10"/>
+      <c r="K5" s="5">
+        <v>2.5468999999999999</v>
+      </c>
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -586,7 +596,9 @@
       <c r="J6" s="5">
         <v>2.5347900000000001</v>
       </c>
-      <c r="K6" s="10"/>
+      <c r="K6" s="5">
+        <v>2.54732</v>
+      </c>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -620,7 +632,9 @@
       <c r="J7" s="5">
         <v>2.5351400000000002</v>
       </c>
-      <c r="K7" s="10"/>
+      <c r="K7" s="5">
+        <v>2.5477400000000001</v>
+      </c>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -654,7 +668,9 @@
       <c r="J8" s="5">
         <v>2.5354899999999998</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="5">
+        <v>2.5481600000000002</v>
+      </c>
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -688,7 +704,9 @@
       <c r="J9" s="5">
         <v>2.5358399999999999</v>
       </c>
-      <c r="K9" s="10"/>
+      <c r="K9" s="5">
+        <v>2.5485799999999998</v>
+      </c>
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -722,7 +740,9 @@
       <c r="J10" s="5">
         <v>2.5361899999999999</v>
       </c>
-      <c r="K10" s="10"/>
+      <c r="K10" s="5">
+        <v>2.5489999999999999</v>
+      </c>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -753,7 +773,9 @@
       <c r="I11" s="5">
         <v>2.5259</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="5">
+        <v>2.5366</v>
+      </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="6"/>
@@ -786,7 +808,9 @@
       <c r="I12" s="5">
         <v>2.5262600000000002</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="5">
+        <v>2.53701</v>
+      </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
@@ -818,7 +842,9 @@
       <c r="I13" s="5">
         <v>2.5266199999999999</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="5">
+        <v>2.53742</v>
+      </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
@@ -850,7 +876,9 @@
       <c r="I14" s="5">
         <v>2.52698</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="5">
+        <v>2.53783</v>
+      </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
@@ -882,7 +910,9 @@
       <c r="I15" s="5">
         <v>2.5273400000000001</v>
       </c>
-      <c r="J15" s="10"/>
+      <c r="J15" s="5">
+        <v>2.5382400000000001</v>
+      </c>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
@@ -914,7 +944,9 @@
       <c r="I16" s="5">
         <v>2.5276999999999998</v>
       </c>
-      <c r="J16" s="10"/>
+      <c r="J16" s="5">
+        <v>2.5386500000000001</v>
+      </c>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
@@ -946,7 +978,9 @@
       <c r="I17" s="5">
         <v>2.52806</v>
       </c>
-      <c r="J17" s="10"/>
+      <c r="J17" s="5">
+        <v>2.5390600000000001</v>
+      </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
     </row>
@@ -978,7 +1012,9 @@
       <c r="I18" s="5">
         <v>2.5284200000000001</v>
       </c>
-      <c r="J18" s="10"/>
+      <c r="J18" s="5">
+        <v>2.5394700000000001</v>
+      </c>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
     </row>
@@ -1010,7 +1046,9 @@
       <c r="I19" s="5">
         <v>2.5287799999999998</v>
       </c>
-      <c r="J19" s="10"/>
+      <c r="J19" s="5">
+        <v>2.5398800000000001</v>
+      </c>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
     </row>
@@ -1042,7 +1080,9 @@
       <c r="I20" s="5">
         <v>2.5291399999999999</v>
       </c>
-      <c r="J20" s="10"/>
+      <c r="J20" s="5">
+        <v>2.5402900000000002</v>
+      </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
     </row>
@@ -1074,7 +1114,9 @@
       <c r="I21" s="5">
         <v>2.5295000000000001</v>
       </c>
-      <c r="J21" s="10"/>
+      <c r="J21" s="5">
+        <v>2.5407000000000002</v>
+      </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
     </row>
@@ -1106,7 +1148,9 @@
       <c r="I22" s="5">
         <v>2.5298600000000002</v>
       </c>
-      <c r="J22" s="10"/>
+      <c r="J22" s="5">
+        <v>2.5411100000000002</v>
+      </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
     </row>
@@ -1138,7 +1182,9 @@
       <c r="I23" s="5">
         <v>2.5302199999999999</v>
       </c>
-      <c r="J23" s="10"/>
+      <c r="J23" s="5">
+        <v>2.5415199999999998</v>
+      </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
     </row>
@@ -1170,7 +1216,9 @@
       <c r="I24" s="5">
         <v>2.5305800000000001</v>
       </c>
-      <c r="J24" s="10"/>
+      <c r="J24" s="5">
+        <v>2.5419299999999998</v>
+      </c>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
     </row>
@@ -1202,7 +1250,9 @@
       <c r="I25" s="5">
         <v>2.5309400000000002</v>
       </c>
-      <c r="J25" s="10"/>
+      <c r="J25" s="5">
+        <v>2.5423399999999998</v>
+      </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
     </row>
@@ -1234,7 +1284,9 @@
       <c r="I26" s="5">
         <v>2.5312999999999999</v>
       </c>
-      <c r="J26" s="10"/>
+      <c r="J26" s="5">
+        <v>2.5427499999999998</v>
+      </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
     </row>
@@ -1266,7 +1318,9 @@
       <c r="I27" s="5">
         <v>2.53166</v>
       </c>
-      <c r="J27" s="10"/>
+      <c r="J27" s="5">
+        <v>2.5431599999999999</v>
+      </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
     </row>
@@ -1298,7 +1352,9 @@
       <c r="I28" s="5">
         <v>2.5320200000000002</v>
       </c>
-      <c r="J28" s="10"/>
+      <c r="J28" s="5">
+        <v>2.5435699999999999</v>
+      </c>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
     </row>
@@ -1330,7 +1386,9 @@
       <c r="I29" s="5">
         <v>2.5323799999999999</v>
       </c>
-      <c r="J29" s="10"/>
+      <c r="J29" s="5">
+        <v>2.5439799999999999</v>
+      </c>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
     </row>
@@ -1360,7 +1418,9 @@
       <c r="I30" s="5">
         <v>2.53274</v>
       </c>
-      <c r="J30" s="10"/>
+      <c r="J30" s="5">
+        <v>2.5443899999999999</v>
+      </c>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
     </row>
@@ -1384,7 +1444,9 @@
         <v>2.52284</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="10"/>
+      <c r="J31" s="5">
+        <v>2.5448</v>
+      </c>
       <c r="K31" s="7"/>
       <c r="L31" s="10"/>
     </row>

--- a/2024.xlsx
+++ b/2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\WEBS\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52774261-9D57-4AE8-AB41-623F6BE0392D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7604D8E6-6BBB-40D7-8C24-C75EF6D50184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -146,7 +146,6 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -375,13 +374,13 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" style="9"/>
+    <col min="2" max="2" width="12.6640625" style="8"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -419,7 +418,9 @@
       <c r="K1" s="5">
         <v>2.54522</v>
       </c>
-      <c r="L1" s="10"/>
+      <c r="L1" s="5">
+        <v>2.56033</v>
+      </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
@@ -455,7 +456,9 @@
       <c r="K2" s="5">
         <v>2.5456400000000001</v>
       </c>
-      <c r="L2" s="10"/>
+      <c r="L2" s="5">
+        <v>2.5608599999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
@@ -491,7 +494,9 @@
       <c r="K3" s="5">
         <v>2.5460600000000002</v>
       </c>
-      <c r="L3" s="10"/>
+      <c r="L3" s="5">
+        <v>2.5613899999999998</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -527,7 +532,9 @@
       <c r="K4" s="5">
         <v>2.5464799999999999</v>
       </c>
-      <c r="L4" s="10"/>
+      <c r="L4" s="5">
+        <v>2.5619200000000002</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
@@ -563,7 +570,9 @@
       <c r="K5" s="5">
         <v>2.5468999999999999</v>
       </c>
-      <c r="L5" s="10"/>
+      <c r="L5" s="5">
+        <v>2.5624500000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
@@ -599,7 +608,9 @@
       <c r="K6" s="5">
         <v>2.54732</v>
       </c>
-      <c r="L6" s="10"/>
+      <c r="L6" s="5">
+        <v>2.56298</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
@@ -635,7 +646,9 @@
       <c r="K7" s="5">
         <v>2.5477400000000001</v>
       </c>
-      <c r="L7" s="10"/>
+      <c r="L7" s="5">
+        <v>2.56351</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -671,7 +684,9 @@
       <c r="K8" s="5">
         <v>2.5481600000000002</v>
       </c>
-      <c r="L8" s="10"/>
+      <c r="L8" s="5">
+        <v>2.5640399999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -707,7 +722,9 @@
       <c r="K9" s="5">
         <v>2.5485799999999998</v>
       </c>
-      <c r="L9" s="10"/>
+      <c r="L9" s="5">
+        <v>2.5645699999999998</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
@@ -743,7 +760,9 @@
       <c r="K10" s="5">
         <v>2.5489999999999999</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="5">
+        <v>2.5651000000000002</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -776,8 +795,10 @@
       <c r="J11" s="5">
         <v>2.5366</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="K11" s="5">
+        <v>2.5495399999999999</v>
+      </c>
+      <c r="L11" s="9"/>
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -811,8 +832,10 @@
       <c r="J12" s="5">
         <v>2.53701</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="K12" s="5">
+        <v>2.5500799999999999</v>
+      </c>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
@@ -845,8 +868,10 @@
       <c r="J13" s="5">
         <v>2.53742</v>
       </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="K13" s="5">
+        <v>2.5506199999999999</v>
+      </c>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
@@ -879,8 +904,10 @@
       <c r="J14" s="5">
         <v>2.53783</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="K14" s="5">
+        <v>2.5511599999999999</v>
+      </c>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
@@ -913,8 +940,10 @@
       <c r="J15" s="5">
         <v>2.5382400000000001</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="K15" s="5">
+        <v>2.5516999999999999</v>
+      </c>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
@@ -947,8 +976,10 @@
       <c r="J16" s="5">
         <v>2.5386500000000001</v>
       </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="K16" s="5">
+        <v>2.5522399999999998</v>
+      </c>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
@@ -981,8 +1012,10 @@
       <c r="J17" s="5">
         <v>2.5390600000000001</v>
       </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="K17" s="5">
+        <v>2.5527799999999998</v>
+      </c>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
@@ -1015,8 +1048,10 @@
       <c r="J18" s="5">
         <v>2.5394700000000001</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="K18" s="5">
+        <v>2.5533199999999998</v>
+      </c>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
@@ -1049,8 +1084,10 @@
       <c r="J19" s="5">
         <v>2.5398800000000001</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="K19" s="5">
+        <v>2.5538599999999998</v>
+      </c>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
@@ -1083,8 +1120,10 @@
       <c r="J20" s="5">
         <v>2.5402900000000002</v>
       </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="K20" s="5">
+        <v>2.5543999999999998</v>
+      </c>
+      <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
@@ -1117,8 +1156,10 @@
       <c r="J21" s="5">
         <v>2.5407000000000002</v>
       </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="K21" s="5">
+        <v>2.5549400000000002</v>
+      </c>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
@@ -1151,8 +1192,10 @@
       <c r="J22" s="5">
         <v>2.5411100000000002</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="K22" s="5">
+        <v>2.5554800000000002</v>
+      </c>
+      <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
@@ -1185,8 +1228,10 @@
       <c r="J23" s="5">
         <v>2.5415199999999998</v>
       </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="K23" s="5">
+        <v>2.5560200000000002</v>
+      </c>
+      <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
@@ -1219,8 +1264,10 @@
       <c r="J24" s="5">
         <v>2.5419299999999998</v>
       </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="K24" s="5">
+        <v>2.5565600000000002</v>
+      </c>
+      <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
@@ -1253,8 +1300,10 @@
       <c r="J25" s="5">
         <v>2.5423399999999998</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
+      <c r="K25" s="5">
+        <v>2.5571000000000002</v>
+      </c>
+      <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
@@ -1287,8 +1336,10 @@
       <c r="J26" s="5">
         <v>2.5427499999999998</v>
       </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="K26" s="5">
+        <v>2.5576400000000001</v>
+      </c>
+      <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
@@ -1321,8 +1372,10 @@
       <c r="J27" s="5">
         <v>2.5431599999999999</v>
       </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
+      <c r="K27" s="5">
+        <v>2.5581800000000001</v>
+      </c>
+      <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
@@ -1355,8 +1408,10 @@
       <c r="J28" s="5">
         <v>2.5435699999999999</v>
       </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
+      <c r="K28" s="5">
+        <v>2.5587200000000001</v>
+      </c>
+      <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
@@ -1389,14 +1444,16 @@
       <c r="J29" s="5">
         <v>2.5439799999999999</v>
       </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="K29" s="5">
+        <v>2.5592600000000001</v>
+      </c>
+      <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>2.4783400000000002</v>
       </c>
-      <c r="B30" s="8"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="5">
         <v>2.48705</v>
       </c>
@@ -1421,14 +1478,16 @@
       <c r="J30" s="5">
         <v>2.5443899999999999</v>
       </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
+      <c r="K30" s="5">
+        <v>2.5598000000000001</v>
+      </c>
+      <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>2.4784799999999998</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="5">
         <v>2.4872200000000002</v>
       </c>
@@ -1447,8 +1506,8 @@
       <c r="J31" s="5">
         <v>2.5448</v>
       </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="10"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F32" s="2"/>

--- a/2024.xlsx
+++ b/2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\WEBS\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7604D8E6-6BBB-40D7-8C24-C75EF6D50184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67820FD-25CB-4D7D-B394-2FB8C7C43944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,9 +150,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +372,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -798,7 +795,9 @@
       <c r="K11" s="5">
         <v>2.5495399999999999</v>
       </c>
-      <c r="L11" s="9"/>
+      <c r="L11" s="5">
+        <v>2.5657299999999998</v>
+      </c>
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -835,7 +834,9 @@
       <c r="K12" s="5">
         <v>2.5500799999999999</v>
       </c>
-      <c r="L12" s="9"/>
+      <c r="L12" s="5">
+        <v>2.56636</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
@@ -871,7 +872,9 @@
       <c r="K13" s="5">
         <v>2.5506199999999999</v>
       </c>
-      <c r="L13" s="9"/>
+      <c r="L13" s="5">
+        <v>2.5669900000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
@@ -907,7 +910,9 @@
       <c r="K14" s="5">
         <v>2.5511599999999999</v>
       </c>
-      <c r="L14" s="9"/>
+      <c r="L14" s="5">
+        <v>2.5676199999999998</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
@@ -943,7 +948,9 @@
       <c r="K15" s="5">
         <v>2.5516999999999999</v>
       </c>
-      <c r="L15" s="9"/>
+      <c r="L15" s="5">
+        <v>2.5682499999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
@@ -979,7 +986,9 @@
       <c r="K16" s="5">
         <v>2.5522399999999998</v>
       </c>
-      <c r="L16" s="9"/>
+      <c r="L16" s="5">
+        <v>2.5688800000000001</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
@@ -1015,7 +1024,9 @@
       <c r="K17" s="5">
         <v>2.5527799999999998</v>
       </c>
-      <c r="L17" s="9"/>
+      <c r="L17" s="5">
+        <v>2.5695100000000002</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
@@ -1051,7 +1062,9 @@
       <c r="K18" s="5">
         <v>2.5533199999999998</v>
       </c>
-      <c r="L18" s="9"/>
+      <c r="L18" s="5">
+        <v>2.5701399999999999</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
@@ -1087,7 +1100,9 @@
       <c r="K19" s="5">
         <v>2.5538599999999998</v>
       </c>
-      <c r="L19" s="9"/>
+      <c r="L19" s="5">
+        <v>2.57077</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
@@ -1123,7 +1138,9 @@
       <c r="K20" s="5">
         <v>2.5543999999999998</v>
       </c>
-      <c r="L20" s="9"/>
+      <c r="L20" s="5">
+        <v>2.5714000000000001</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
@@ -1159,7 +1176,9 @@
       <c r="K21" s="5">
         <v>2.5549400000000002</v>
       </c>
-      <c r="L21" s="9"/>
+      <c r="L21" s="5">
+        <v>2.5720299999999998</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
@@ -1195,7 +1214,9 @@
       <c r="K22" s="5">
         <v>2.5554800000000002</v>
       </c>
-      <c r="L22" s="9"/>
+      <c r="L22" s="5">
+        <v>2.5726599999999999</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
@@ -1231,7 +1252,9 @@
       <c r="K23" s="5">
         <v>2.5560200000000002</v>
       </c>
-      <c r="L23" s="9"/>
+      <c r="L23" s="5">
+        <v>2.5732900000000001</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
@@ -1267,7 +1290,9 @@
       <c r="K24" s="5">
         <v>2.5565600000000002</v>
       </c>
-      <c r="L24" s="9"/>
+      <c r="L24" s="5">
+        <v>2.5739200000000002</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
@@ -1303,7 +1328,9 @@
       <c r="K25" s="5">
         <v>2.5571000000000002</v>
       </c>
-      <c r="L25" s="9"/>
+      <c r="L25" s="5">
+        <v>2.5745499999999999</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
@@ -1339,7 +1366,9 @@
       <c r="K26" s="5">
         <v>2.5576400000000001</v>
       </c>
-      <c r="L26" s="9"/>
+      <c r="L26" s="5">
+        <v>2.57518</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
@@ -1375,7 +1404,9 @@
       <c r="K27" s="5">
         <v>2.5581800000000001</v>
       </c>
-      <c r="L27" s="9"/>
+      <c r="L27" s="5">
+        <v>2.5758100000000002</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
@@ -1411,7 +1442,9 @@
       <c r="K28" s="5">
         <v>2.5587200000000001</v>
       </c>
-      <c r="L28" s="9"/>
+      <c r="L28" s="5">
+        <v>2.5764399999999998</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
@@ -1447,7 +1480,9 @@
       <c r="K29" s="5">
         <v>2.5592600000000001</v>
       </c>
-      <c r="L29" s="9"/>
+      <c r="L29" s="5">
+        <v>2.57707</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
@@ -1481,7 +1516,9 @@
       <c r="K30" s="5">
         <v>2.5598000000000001</v>
       </c>
-      <c r="L30" s="9"/>
+      <c r="L30" s="5">
+        <v>2.5777000000000001</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
@@ -1507,7 +1544,9 @@
         <v>2.5448</v>
       </c>
       <c r="K31" s="5"/>
-      <c r="L31" s="9"/>
+      <c r="L31" s="5">
+        <v>2.5783299999999998</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F32" s="2"/>
